--- a/excel/data1.xlsx
+++ b/excel/data1.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_A5A0306CCF7EDC9E3C659688C028597E0EA00224" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91122E9D-57DA-4689-AA9D-EC505BB0221D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="əməliyyat haqları" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3705,7 +3715,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\ dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="\(\)\ dd\.mm\.yyyy"/>
@@ -3774,7 +3784,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4051,11 +4061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4074,6 +4084,7 @@
     <col min="29" max="29" width="10.44140625" customWidth="1"/>
     <col min="31" max="31" width="8.88671875" customWidth="1"/>
     <col min="32" max="32" width="0.21875" customWidth="1"/>
+    <col min="34" max="34" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -73223,7 +73234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
